--- a/9-Box-PerformanceAnalysis.xlsx
+++ b/9-Box-PerformanceAnalysis.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Management\PerformanceManagement\Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\pel\TSDM\Book\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AF96E9-36B1-44F5-81F0-217E84726A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{603A1287-6CCE-4D88-8F4F-9115AC775B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E64AFABE-29B3-466A-9D24-C578BAB68637}"/>
   </bookViews>
   <sheets>
     <sheet name="9-Box" sheetId="1" r:id="rId1"/>
+    <sheet name="9-Box-1-9" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Culture</t>
   </si>
@@ -85,7 +86,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -103,6 +107,388 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>9-Box - Talent Perofmrance Analysis</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10076638872989598"/>
+          <c:y val="0.14277065527065527"/>
+          <c:w val="0.795271594243254"/>
+          <c:h val="0.70793874754095043"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9-Box'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="22225">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'9-Box'!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'9-Box'!$F$2:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.4666666666666659</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.3333333333333339</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3746-45E1-BDC8-77466C09BF7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="561612224"/>
+        <c:axId val="561613664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="561612224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="9"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561613664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="3"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="561613664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561612224"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="3"/>
+        <c:minorUnit val="3"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -221,7 +607,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'9-Box'!$F$1</c:f>
+              <c:f>'9-Box-1-9'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -254,7 +640,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9-Box'!$A$2:$A$12</c:f>
+              <c:f>'9-Box-1-9'!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -296,7 +682,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9-Box'!$F$2:$F$12</c:f>
+              <c:f>'9-Box-1-9'!$F$2:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
@@ -339,7 +725,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3746-45E1-BDC8-77466C09BF7F}"/>
+              <c16:uniqueId val="{00000000-ECE5-4C43-BB81-5BC212513093}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -578,7 +964,582 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="247">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="100" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="79000">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:alpha val="60000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1098,16 +2059,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1136,6 +2097,1934 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.16424</cdr:x>
+      <cdr:y>0.63912</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.40278</cdr:x>
+      <cdr:y>0.82716</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC669DE5-793C-A168-1847-B26EFFA79357}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1158897" y="2527593"/>
+          <a:ext cx="1683199" cy="743634"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+            </a:rPr>
+            <a:t>Low Performer</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+            </a:rPr>
+            <a:t>Low Potential</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+            </a:rPr>
+            <a:t>Relocate</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.43373</cdr:x>
+      <cdr:y>0.64217</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.67901</cdr:x>
+      <cdr:y>0.83448</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2CC111D-AB69-1B46-0D80-4B93E0120959}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3060447" y="2539658"/>
+          <a:ext cx="1730746" cy="760535"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+            </a:rPr>
+            <a:t>Moderate Performer</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+            </a:rPr>
+            <a:t>Low Potential</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+            </a:rPr>
+            <a:t>Relocate/Retain</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.7173</cdr:x>
+      <cdr:y>0.64792</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96258</cdr:x>
+      <cdr:y>0.83595</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29AAFB04-FB6D-D380-B7A4-DE091DE9BAC0}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5061364" y="2562372"/>
+          <a:ext cx="1730747" cy="743633"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+            </a:rPr>
+            <a:t>High Performer</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+            </a:rPr>
+            <a:t>Low Potential</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+            </a:rPr>
+            <a:t>Retain</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.17024</cdr:x>
+      <cdr:y>0.39845</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.41552</cdr:x>
+      <cdr:y>0.60571</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EDEEEE3-8C7D-57C3-7EA7-6E0486CAA6AD}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1201208" y="1575777"/>
+          <a:ext cx="1730746" cy="819687"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+            </a:rPr>
+            <a:t>Low Performer</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+            </a:rPr>
+            <a:t>Moderate Potential</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+            </a:rPr>
+            <a:t>Relocate/Retain</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.42569</cdr:x>
+      <cdr:y>0.39862</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.67097</cdr:x>
+      <cdr:y>0.58666</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A68D6AA1-CB4F-8A90-FD1D-DF627FE8BBAD}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3003697" y="1576461"/>
+          <a:ext cx="1730747" cy="743634"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+            </a:rPr>
+            <a:t>Moderate Performer</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+            </a:rPr>
+            <a:t>Moderate Potential</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="5000"/>
+                    <a:lumOff val="95000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="74000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="45000"/>
+                    <a:lumOff val="55000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="83000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="45000"/>
+                    <a:lumOff val="55000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="30000"/>
+                    <a:lumOff val="70000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+            </a:rPr>
+            <a:t>Retain/Invest</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="5000"/>
+                    <a:lumOff val="95000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="74000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="45000"/>
+                    <a:lumOff val="55000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="83000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="45000"/>
+                    <a:lumOff val="55000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="30000"/>
+                    <a:lumOff val="70000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.70919</cdr:x>
+      <cdr:y>0.4008</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.95447</cdr:x>
+      <cdr:y>0.58456</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D417FB19-3C26-25A8-CAA1-51C73F950F84}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5004122" y="1585058"/>
+          <a:ext cx="1730746" cy="726733"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+            </a:rPr>
+            <a:t>High Performer</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+            </a:rPr>
+            <a:t>Moderate Potential</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+            </a:rPr>
+            <a:t>Retain/Invest</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.16535</cdr:x>
+      <cdr:y>0.16684</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.41064</cdr:x>
+      <cdr:y>0.33778</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C150AC92-13B9-3C6E-BECE-546C5DF2A7C7}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1166764" y="659814"/>
+          <a:ext cx="1730746" cy="676031"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+            </a:rPr>
+            <a:t>Low Performer</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+            </a:rPr>
+            <a:t>High Potential</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+            </a:rPr>
+            <a:t>Retain/Invest/PIP</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.42134</cdr:x>
+      <cdr:y>0.18414</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.68414</cdr:x>
+      <cdr:y>0.37218</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1C5801D-90AE-05AB-1D99-4F8849EC88F3}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2973032" y="728247"/>
+          <a:ext cx="1854372" cy="743634"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+            </a:rPr>
+            <a:t>Moderate Performer</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+            </a:rPr>
+            <a:t>High Potential</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="5000"/>
+                    <a:lumOff val="95000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="74000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="45000"/>
+                    <a:lumOff val="55000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="83000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="45000"/>
+                    <a:lumOff val="55000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="30000"/>
+                    <a:lumOff val="70000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+            </a:rPr>
+            <a:t>Retain/Invest/Reward</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="5000"/>
+                    <a:lumOff val="95000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="74000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="45000"/>
+                    <a:lumOff val="55000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="83000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="45000"/>
+                    <a:lumOff val="55000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="30000"/>
+                    <a:lumOff val="70000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.6995</cdr:x>
+      <cdr:y>0.19441</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99195</cdr:x>
+      <cdr:y>0.38885</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{611B02A5-DA19-9B1D-CA5F-CD3BFB978F77}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4935727" y="768838"/>
+          <a:ext cx="2063582" cy="768985"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+            </a:rPr>
+            <a:t>High Performer</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+            </a:rPr>
+            <a:t>High Potential</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+            </a:rPr>
+            <a:t>Promote/Invest/Reward</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.11538</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.10904</cdr:x>
+      <cdr:y>0.89744</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="11" name="Arrow: Up 10">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC3ADF3C-3C69-6304-86FA-280C9913B796}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="480921"/>
+          <a:ext cx="845820" cy="3259735"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+                <a:alpha val="43000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="74000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="83000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="30000"/>
+                <a:lumOff val="70000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" vert="wordArtVert" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Algerian" panose="04020705040A02060702" pitchFamily="82" charset="0"/>
+            </a:rPr>
+            <a:t>Potential</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.11015</cdr:x>
+      <cdr:y>0.83181</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.90668</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="12" name="Arrow: Up 11">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{315544B7-D2F2-EBB1-86C8-DC4C831786F1}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="5400000">
+          <a:off x="3593337" y="728216"/>
+          <a:ext cx="701037" cy="6178809"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+                <a:alpha val="43000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="74000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="83000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="30000"/>
+                <a:lumOff val="70000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="vert270" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr lvl="1" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Algerian" panose="04020705040A02060702" pitchFamily="82" charset="0"/>
+            </a:rPr>
+            <a:t>Performance</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.89391</cdr:x>
+      <cdr:y>0.07836</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.86042</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="13" name="Arrow: Up 12">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E52E7F44-21F0-41DE-8DC3-B54F5A77A6CC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6934200" y="326598"/>
+          <a:ext cx="822960" cy="3259735"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+                <a:alpha val="43000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="74000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="83000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="30000"/>
+                <a:lumOff val="70000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="wordArtVert" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Algerian" panose="04020705040A02060702" pitchFamily="82" charset="0"/>
+            </a:rPr>
+            <a:t>Biz impact</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA64F889-1781-4E0C-8859-8C9F07A1BE19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -2843,7 +5732,25 @@
     <tableColumn id="5" xr3:uid="{1961F294-EAB0-4F27-A582-117C8312A5C9}" name="Total">
       <calculatedColumnFormula>SUM(B2:D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F8419F62-B094-4960-AD17-384293A7139A}" name="Average" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{F8419F62-B094-4960-AD17-384293A7139A}" name="Average" dataDxfId="1">
+      <calculatedColumnFormula>E2/COUNT(B2:D2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{046C719B-4329-4B46-9676-AD5F7E5FE629}" name="Table13" displayName="Table13" ref="A1:F12" totalsRowShown="0">
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{071DA80A-0E7D-40B5-8614-D6C6D1F4221F}" name="Employee ID"/>
+    <tableColumn id="2" xr3:uid="{2EBE8309-9A89-47B3-826F-435B350D9A08}" name="Skill"/>
+    <tableColumn id="3" xr3:uid="{E84E82F1-4A07-481E-9538-C73C4B67DD50}" name="Role"/>
+    <tableColumn id="4" xr3:uid="{D53854F9-4F8E-4397-B1AD-EFBD71EF50D6}" name="Culture"/>
+    <tableColumn id="5" xr3:uid="{85AF5D68-F8DB-4B7E-8085-FCE2517B0C9A}" name="Total">
+      <calculatedColumnFormula>SUM(B2:D2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{D9BD267A-9261-4514-BD12-5C3587908647}" name="Average" dataDxfId="0">
       <calculatedColumnFormula>E2/COUNT(B2:D2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3151,6 +6058,290 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1.5</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2.5</v>
+      </c>
+      <c r="E2">
+        <f>SUM(B2:D2)</f>
+        <v>6</v>
+      </c>
+      <c r="F2" s="1">
+        <f>E2/COUNT(B2:D2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>5.5</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E12" si="0">SUM(B3:D3)</f>
+        <v>13.5</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F12" si="1">E3/COUNT(B3:D3)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2.9</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>9.9</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3000000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3.5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>3.1666666666666665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1.5</v>
+      </c>
+      <c r="C6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>6.7</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>2.2333333333333334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>8.5</v>
+      </c>
+      <c r="C8">
+        <v>7.9</v>
+      </c>
+      <c r="D8">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>25.2</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>4.5</v>
+      </c>
+      <c r="C9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D9">
+        <v>5.8</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>6.2</v>
+      </c>
+      <c r="C11">
+        <v>5.5</v>
+      </c>
+      <c r="D11">
+        <v>7.7</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>6.4666666666666659</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7.5</v>
+      </c>
+      <c r="C12">
+        <v>8.5</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB1A1A4-A1A8-4FF1-AA5A-04CD2AF85DEA}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>

--- a/9-Box-PerformanceAnalysis.xlsx
+++ b/9-Box-PerformanceAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\pel\TSDM\Book\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{603A1287-6CCE-4D88-8F4F-9115AC775B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721172D0-255B-4CF7-A30F-98EFE739C330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E64AFABE-29B3-466A-9D24-C578BAB68637}"/>
   </bookViews>
@@ -28,15 +28,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
-    <t>Culture</t>
-  </si>
-  <si>
-    <t>Skill</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -44,6 +35,15 @@
   </si>
   <si>
     <t>Employee ID</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>Potential</t>
+  </si>
+  <si>
+    <t>Biz Impact</t>
   </si>
 </sst>
 </file>
@@ -593,8 +593,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14362695078881879"/>
-          <c:y val="0.14277065527065527"/>
+          <c:x val="0.1004304065123609"/>
+          <c:y val="0.14598207738483557"/>
           <c:w val="0.83427081738972675"/>
           <c:h val="0.66298049449021179"/>
         </c:manualLayout>
@@ -5530,7 +5530,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Performance</a:t>
+            <a:t>POTENTIAL</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -5713,7 +5713,189 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Potential</a:t>
+            <a:t>PERFORMANCE</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.91037</cdr:x>
+      <cdr:y>0.08028</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.86234</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="13" name="Arrow: Up 12">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79E040AE-473C-74B3-69E1-DEFEEB73F195}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6423680" y="317500"/>
+          <a:ext cx="632440" cy="3092875"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+                <a:alpha val="43000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="74000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="83000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="30000"/>
+                <a:lumOff val="70000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="wordArtVert"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>BIZ IMPACT</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -5726,9 +5908,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A59B5121-2FD4-45D9-95B4-26F8D08B3E60}" name="Table1" displayName="Table1" ref="A1:F12" totalsRowShown="0">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D7C3542D-1930-4079-A792-8DCEE8C92719}" name="Employee ID"/>
-    <tableColumn id="2" xr3:uid="{EE625936-F8A8-43C6-8D23-90068D72E870}" name="Skill"/>
-    <tableColumn id="3" xr3:uid="{11ABA603-AA7D-420A-9ED6-7A1542CBB65C}" name="Role"/>
-    <tableColumn id="4" xr3:uid="{8D81CC7D-E813-47C4-9733-C64CD35EB3B4}" name="Culture"/>
+    <tableColumn id="2" xr3:uid="{EE625936-F8A8-43C6-8D23-90068D72E870}" name="Potential"/>
+    <tableColumn id="3" xr3:uid="{11ABA603-AA7D-420A-9ED6-7A1542CBB65C}" name="Impact"/>
+    <tableColumn id="4" xr3:uid="{8D81CC7D-E813-47C4-9733-C64CD35EB3B4}" name="Biz Impact"/>
     <tableColumn id="5" xr3:uid="{1961F294-EAB0-4F27-A582-117C8312A5C9}" name="Total">
       <calculatedColumnFormula>SUM(B2:D2)</calculatedColumnFormula>
     </tableColumn>
@@ -5744,9 +5926,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{046C719B-4329-4B46-9676-AD5F7E5FE629}" name="Table13" displayName="Table13" ref="A1:F12" totalsRowShown="0">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{071DA80A-0E7D-40B5-8614-D6C6D1F4221F}" name="Employee ID"/>
-    <tableColumn id="2" xr3:uid="{2EBE8309-9A89-47B3-826F-435B350D9A08}" name="Skill"/>
-    <tableColumn id="3" xr3:uid="{E84E82F1-4A07-481E-9538-C73C4B67DD50}" name="Role"/>
-    <tableColumn id="4" xr3:uid="{D53854F9-4F8E-4397-B1AD-EFBD71EF50D6}" name="Culture"/>
+    <tableColumn id="2" xr3:uid="{2EBE8309-9A89-47B3-826F-435B350D9A08}" name="Potential"/>
+    <tableColumn id="3" xr3:uid="{E84E82F1-4A07-481E-9538-C73C4B67DD50}" name="Impact"/>
+    <tableColumn id="4" xr3:uid="{D53854F9-4F8E-4397-B1AD-EFBD71EF50D6}" name="Biz Impact"/>
     <tableColumn id="5" xr3:uid="{85AF5D68-F8DB-4B7E-8085-FCE2517B0C9A}" name="Total">
       <calculatedColumnFormula>SUM(B2:D2)</calculatedColumnFormula>
     </tableColumn>
@@ -6058,7 +6240,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6069,22 +6251,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -6342,7 +6524,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6353,22 +6535,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">

--- a/9-Box-PerformanceAnalysis.xlsx
+++ b/9-Box-PerformanceAnalysis.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\pel\TSDM\Book\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Management\PerformanceManagement\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721172D0-255B-4CF7-A30F-98EFE739C330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A677027-3A65-4E6B-8181-AF20C9A98EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E64AFABE-29B3-466A-9D24-C578BAB68637}"/>
   </bookViews>
   <sheets>
-    <sheet name="9-Box" sheetId="1" r:id="rId1"/>
-    <sheet name="9-Box-1-9" sheetId="2" r:id="rId2"/>
+    <sheet name="9-Box-blue" sheetId="1" r:id="rId1"/>
+    <sheet name="9-Box-gray" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,6 +28,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
@@ -38,12 +44,6 @@
   </si>
   <si>
     <t>Impact</t>
-  </si>
-  <si>
-    <t>Potential</t>
-  </si>
-  <si>
-    <t>Biz Impact</t>
   </si>
 </sst>
 </file>
@@ -190,7 +190,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'9-Box'!$F$1</c:f>
+              <c:f>'9-Box-blue'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -228,7 +228,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9-Box'!$A$2:$A$12</c:f>
+              <c:f>'9-Box-blue'!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -270,7 +270,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9-Box'!$F$2:$F$12</c:f>
+              <c:f>'9-Box-blue'!$F$2:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
@@ -593,8 +593,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1004304065123609"/>
-          <c:y val="0.14598207738483557"/>
+          <c:x val="0.14362695078881879"/>
+          <c:y val="0.14277065527065527"/>
           <c:w val="0.83427081738972675"/>
           <c:h val="0.66298049449021179"/>
         </c:manualLayout>
@@ -607,7 +607,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'9-Box-1-9'!$F$1</c:f>
+              <c:f>'9-Box-gray'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -640,7 +640,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9-Box-1-9'!$A$2:$A$12</c:f>
+              <c:f>'9-Box-gray'!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -682,7 +682,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9-Box-1-9'!$F$2:$F$12</c:f>
+              <c:f>'9-Box-gray'!$F$2:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3604,7 +3604,7 @@
               </a:solidFill>
               <a:latin typeface="Algerian" panose="04020705040A02060702" pitchFamily="82" charset="0"/>
             </a:rPr>
-            <a:t>Potential</a:t>
+            <a:t>PERFORMANCE</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -3788,191 +3788,7 @@
               </a:solidFill>
               <a:latin typeface="Algerian" panose="04020705040A02060702" pitchFamily="82" charset="0"/>
             </a:rPr>
-            <a:t>Performance</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.89391</cdr:x>
-      <cdr:y>0.07836</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>0.86042</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="13" name="Arrow: Up 12">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E52E7F44-21F0-41DE-8DC3-B54F5A77A6CC}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6934200" y="326598"/>
-          <a:ext cx="822960" cy="3259735"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="upArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="5000"/>
-                <a:lumOff val="95000"/>
-                <a:alpha val="43000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="74000">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="45000"/>
-                <a:lumOff val="55000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="83000">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="45000"/>
-                <a:lumOff val="55000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="30000"/>
-                <a:lumOff val="70000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-        </a:gradFill>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </cdr:style>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="wordArtVert" anchor="ctr"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Algerian" panose="04020705040A02060702" pitchFamily="82" charset="0"/>
-            </a:rPr>
-            <a:t>Biz impact</a:t>
+            <a:t>POTENTIAL</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -5530,7 +5346,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>POTENTIAL</a:t>
+            <a:t>PERFORMANCE</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -5612,7 +5428,7 @@
         </a:fontRef>
       </cdr:style>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="wordArtVert"/>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="vert270" anchor="ctr"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:lvl1pPr marL="0" indent="0">
             <a:defRPr sz="1100">
@@ -5706,196 +5522,14 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr lvl="1"/>
+          <a:pPr lvl="1" algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1400">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>PERFORMANCE</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.91037</cdr:x>
-      <cdr:y>0.08028</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>0.86234</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="13" name="Arrow: Up 12">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79E040AE-473C-74B3-69E1-DEFEEB73F195}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6423680" y="317500"/>
-          <a:ext cx="632440" cy="3092875"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="upArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="5000"/>
-                <a:lumOff val="95000"/>
-                <a:alpha val="43000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="74000">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="45000"/>
-                <a:lumOff val="55000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="83000">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="45000"/>
-                <a:lumOff val="55000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="30000"/>
-                <a:lumOff val="70000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-        </a:gradFill>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </cdr:style>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="wordArtVert"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>BIZ IMPACT</a:t>
+            <a:t>POTENTIAL</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -5908,9 +5542,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A59B5121-2FD4-45D9-95B4-26F8D08B3E60}" name="Table1" displayName="Table1" ref="A1:F12" totalsRowShown="0">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D7C3542D-1930-4079-A792-8DCEE8C92719}" name="Employee ID"/>
-    <tableColumn id="2" xr3:uid="{EE625936-F8A8-43C6-8D23-90068D72E870}" name="Potential"/>
-    <tableColumn id="3" xr3:uid="{11ABA603-AA7D-420A-9ED6-7A1542CBB65C}" name="Impact"/>
-    <tableColumn id="4" xr3:uid="{8D81CC7D-E813-47C4-9733-C64CD35EB3B4}" name="Biz Impact"/>
+    <tableColumn id="2" xr3:uid="{EE625936-F8A8-43C6-8D23-90068D72E870}" name="Skill"/>
+    <tableColumn id="3" xr3:uid="{11ABA603-AA7D-420A-9ED6-7A1542CBB65C}" name="Role"/>
+    <tableColumn id="4" xr3:uid="{8D81CC7D-E813-47C4-9733-C64CD35EB3B4}" name="Impact"/>
     <tableColumn id="5" xr3:uid="{1961F294-EAB0-4F27-A582-117C8312A5C9}" name="Total">
       <calculatedColumnFormula>SUM(B2:D2)</calculatedColumnFormula>
     </tableColumn>
@@ -5926,9 +5560,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{046C719B-4329-4B46-9676-AD5F7E5FE629}" name="Table13" displayName="Table13" ref="A1:F12" totalsRowShown="0">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{071DA80A-0E7D-40B5-8614-D6C6D1F4221F}" name="Employee ID"/>
-    <tableColumn id="2" xr3:uid="{2EBE8309-9A89-47B3-826F-435B350D9A08}" name="Potential"/>
-    <tableColumn id="3" xr3:uid="{E84E82F1-4A07-481E-9538-C73C4B67DD50}" name="Impact"/>
-    <tableColumn id="4" xr3:uid="{D53854F9-4F8E-4397-B1AD-EFBD71EF50D6}" name="Biz Impact"/>
+    <tableColumn id="2" xr3:uid="{2EBE8309-9A89-47B3-826F-435B350D9A08}" name="Skill"/>
+    <tableColumn id="3" xr3:uid="{E84E82F1-4A07-481E-9538-C73C4B67DD50}" name="Role"/>
+    <tableColumn id="4" xr3:uid="{D53854F9-4F8E-4397-B1AD-EFBD71EF50D6}" name="Impact"/>
     <tableColumn id="5" xr3:uid="{85AF5D68-F8DB-4B7E-8085-FCE2517B0C9A}" name="Total">
       <calculatedColumnFormula>SUM(B2:D2)</calculatedColumnFormula>
     </tableColumn>
@@ -6240,7 +5874,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6251,22 +5885,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -6524,7 +6158,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6535,22 +6169,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
